--- a/homework-2/Apriori/example.xlsx
+++ b/homework-2/Apriori/example.xlsx
@@ -439,7 +439,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>{5}</t>
+          <t>{2}</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -449,17 +449,17 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>{3}</t>
+          <t>{1}</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>{2}</t>
+          <t>{5}</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -469,11 +469,11 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>{1}</t>
+          <t>{3}</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -520,27 +520,27 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>{2, 5}</t>
+          <t>{5, 3}</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>{2, 3}</t>
+          <t>{5, 2}</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>{5, 3}</t>
+          <t>{3, 2}</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -581,7 +581,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>{3, 5, 2}</t>
+          <t>{5, 3, 2}</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -642,12 +642,12 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
+          <t>{5}</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>{2}</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{5}</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -657,12 +657,12 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
+          <t>{2}</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>{5}</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{2}</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -672,7 +672,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>{3, 5}</t>
+          <t>{5, 3}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
